--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Unicommerce Esolutions Ltd/Pruned_Excel/Final_Parameters/Unicommerce Esolutions Ltd_Cleaned_Data.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Unicommerce Esolutions Ltd/Pruned_Excel/Final_Parameters/Unicommerce Esolutions Ltd_Cleaned_Data.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="164">
   <si>
     <t>Balance Sheet of Unicommerce Esolutions(in Rs. Cr.)</t>
   </si>
@@ -317,6 +317,9 @@
     <t>P/l before exceptional items &amp; tax</t>
   </si>
   <si>
+    <t>Exceptional items</t>
+  </si>
+  <si>
     <t>P/l before tax</t>
   </si>
   <si>
@@ -375,6 +378,9 @@
   </si>
   <si>
     <t>P/L Before Exceptional Items &amp; Tax</t>
+  </si>
+  <si>
+    <t>Exceptional Items</t>
   </si>
   <si>
     <t>P/L Before Tax</t>
@@ -1866,13 +1872,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>90</v>
       </c>
@@ -1933,19 +1939,22 @@
       <c r="T1" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="U1" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
         <v>90</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E2" t="s">
         <v>94</v>
@@ -1954,51 +1963,54 @@
         <v>78</v>
       </c>
       <c r="G2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H2" t="s">
         <v>72</v>
       </c>
       <c r="I2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J2" t="s">
         <v>97</v>
       </c>
       <c r="K2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M2" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="N2" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="O2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="R2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="S2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="T2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
+        <v>127</v>
+      </c>
+      <c r="U2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B3">
         <v>25.96</v>
@@ -2030,31 +2042,31 @@
       <c r="K3">
         <v>5.2</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>5.2</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>1.37</v>
-      </c>
-      <c r="N3">
-        <v>3.83</v>
       </c>
       <c r="O3">
         <v>3.83</v>
       </c>
       <c r="P3">
+        <v>3.83</v>
+      </c>
+      <c r="Q3">
         <v>5.89</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>0.65</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>0.65</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B4">
         <v>25.93</v>
@@ -2086,37 +2098,37 @@
       <c r="K4">
         <v>4.88</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>4.88</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>1.19</v>
-      </c>
-      <c r="N4">
-        <v>3.69</v>
       </c>
       <c r="O4">
         <v>3.69</v>
       </c>
       <c r="P4">
+        <v>3.69</v>
+      </c>
+      <c r="Q4">
         <v>0.02</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>0.37</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>0.33</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>0.37</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>0.33</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B5">
         <v>29.31</v>
@@ -2148,37 +2160,37 @@
       <c r="K5">
         <v>6.02</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>6.02</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>1.54</v>
-      </c>
-      <c r="N5">
-        <v>4.47</v>
       </c>
       <c r="O5">
         <v>4.47</v>
       </c>
       <c r="P5">
+        <v>4.47</v>
+      </c>
+      <c r="Q5">
         <v>10.24</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>0.44</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>0.4</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>0.44</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>0.4</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B6">
         <v>27.47</v>
@@ -2210,37 +2222,37 @@
       <c r="K6">
         <v>4.74</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>4.74</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>1.23</v>
-      </c>
-      <c r="N6">
-        <v>3.51</v>
       </c>
       <c r="O6">
         <v>3.51</v>
       </c>
       <c r="P6">
+        <v>3.51</v>
+      </c>
+      <c r="Q6">
         <v>5.89</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>0.35</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>0.31</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>0.35</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>0.31</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B7">
         <v>26.53</v>
@@ -2272,31 +2284,31 @@
       <c r="K7">
         <v>3.8</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>3.8</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>0.92</v>
-      </c>
-      <c r="N7">
-        <v>2.88</v>
       </c>
       <c r="O7">
         <v>2.88</v>
       </c>
       <c r="P7">
+        <v>2.88</v>
+      </c>
+      <c r="Q7">
         <v>5.89</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>0.28</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>0.26</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>0.28</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>0.26</v>
       </c>
     </row>
@@ -2315,114 +2327,114 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="I2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="J2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="N2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="O2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="R2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:18">
